--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>2.071001150990881</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>1.642917982900616</v>
+        <v>5.125398993052044</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>1.723071728558834</v>
+        <v>0.8787496612562951</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>2.645042900775185</v>
+        <v>1.013823151053095</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>1.914440043391008</v>
+        <v>2.723861837742825</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.305734385870427</v>
+        <v>4.356912452939476</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.9805984725731243</v>
+        <v>2.431458940167008</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.299987570693029</v>
+        <v>5.259925231829898</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.8782406444933333</v>
+        <v>1.447930496829541</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.8990150582872447</v>
+        <v>0.7814198158142105</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.128708860122107</v>
+        <v>0.3494148569448852</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.616267129640914</v>
+        <v>-0.5632089058212553</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.35473889964699</v>
+        <v>0.6742451383205061</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.144882766247513</v>
+        <v>1.713290556413605</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.327429744348141</v>
+        <v>2.178094576990031</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.544398447820039</v>
+        <v>2.743122680804988</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.800387729605491</v>
+        <v>2.623600596229347</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.740627999849621</v>
+        <v>1.891220645890002</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.826803441326264</v>
+        <v>1.715791310593229</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>3.443596172006225</v>
+        <v>1.687339605296523</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>1.147915744719907</v>
+        <v>0.3317798769387315</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.8024032016000104</v>
+        <v>-2.079848588862154</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.267590462984637</v>
+        <v>0.8934982674867697</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.686214311255841</v>
+        <v>-1.194610791899997</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.254834539814499</v>
+        <v>1.979074033580819</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.42168652960002</v>
+        <v>0.8024032015999882</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.512561578013339</v>
+        <v>2.552476296061434</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>3.213286701327234</v>
+        <v>3.086122033237126</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.8462221700420658</v>
+        <v>0.3901728183783204</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.888640497802463</v>
+        <v>1.906002353653125</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>1.496538623068333</v>
+        <v>-1.906744368254853</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>10.79826000521473</v>
+        <v>9.556389850000446</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.533774754225425</v>
+        <v>1.152760694685062</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.7270088090218563</v>
+        <v>0.6444718444275521</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6266141624900579</v>
+        <v>2.287212358310953</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.888640497802352</v>
+        <v>1.801540135156521</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.552476296061434</v>
+        <v>2.091985819293041</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>3.086122033237126</v>
+        <v>0.8023688159249254</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.3901728183783204</v>
+        <v>0.06579575777909685</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>1.906002353653125</v>
+        <v>0.2740865344839527</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.906744368254853</v>
+        <v>-7.338081973668542</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>9.556389850000446</v>
+        <v>-18.16237400185398</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.152760694685062</v>
+        <v>0.6787613333699927</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.6444718444275521</v>
+        <v>-1.696610696428325</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.287212358310953</v>
+        <v>1.643634172128272</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>1.801540135156521</v>
+        <v>-1.362365718491865</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_PUBCON_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,9 +422,6 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>2.071001150990881</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
@@ -440,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>0.8787496612562951</v>
+        <v>0.8787496612563173</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>1.013823151053095</v>
+        <v>1.013823151053028</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -463,7 +460,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>4.356912452939476</v>
+        <v>4.356912452939454</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>2.431458940167008</v>
+        <v>2.431458940166964</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>5.259925231829898</v>
+        <v>5.259925231829876</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.447930496829541</v>
+        <v>1.447930496829564</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -514,7 +511,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.5632089058212553</v>
+        <v>-0.563208905821222</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.6742451383205061</v>
+        <v>0.6742451383204839</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>1.713290556413605</v>
+        <v>1.713290556413583</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.715791310593229</v>
+        <v>1.715791310593251</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.687339605296523</v>
+        <v>1.687339605296501</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-2.079848588862154</v>
+        <v>-2.079848588862143</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.8934982674867697</v>
+        <v>0.893498267486792</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-1.194610791899997</v>
+        <v>-1.194610791899986</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>0.8024032015999882</v>
+        <v>0.8024032016000104</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +647,7 @@
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.8023688159249254</v>
+        <v>0.8023688159249032</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.06579575777909685</v>
+        <v>0.06579575777907465</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.2740865344839527</v>
+        <v>0.2740865344839749</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -701,7 +698,7 @@
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-1.696610696428325</v>
+        <v>-1.696610696428313</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +715,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-1.362365718491865</v>
+        <v>-1.362365718491854</v>
       </c>
     </row>
   </sheetData>
